--- a/docs/Collector1/Collector1_07.08.24_output.xlsx
+++ b/docs/Collector1/Collector1_07.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,72 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,524 +510,654 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1730744506.454864</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>1730744509.9548702</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1730744506.454864.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>./test_images/SBER1730744509.9548702.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="L3" t="n">
         <v>279.11</v>
       </c>
-      <c r="J3" t="n">
+      <c r="M3" t="n">
         <v>279.67</v>
       </c>
-      <c r="K3" t="n">
+      <c r="N3" t="n">
         <v>0.5600000000000023</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1730744512.4366407</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>1730744516.140299</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730744512.4366407.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730744516.140299.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="L4" t="n">
         <v>128.64</v>
       </c>
-      <c r="J4" t="n">
+      <c r="M4" t="n">
         <v>127.91</v>
       </c>
-      <c r="K4" t="n">
+      <c r="N4" t="n">
         <v>-0.7299999999999898</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-0.5700000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1730744519.0193126</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>1730744523.180543</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730744519.0193126.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730744523.180543.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="L5" t="n">
         <v>6408</v>
       </c>
-      <c r="J5" t="n">
+      <c r="M5" t="n">
         <v>6434.5</v>
       </c>
-      <c r="K5" t="n">
+      <c r="N5" t="n">
         <v>26.5</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.41</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1730744525.2937598</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>1730744527.4562163</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730744525.2937598.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730744527.4562163.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="L6" t="n">
         <v>493.85</v>
       </c>
-      <c r="J6" t="n">
+      <c r="M6" t="n">
         <v>499.8</v>
       </c>
-      <c r="K6" t="n">
+      <c r="N6" t="n">
         <v>5.949999999999989</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1730744531.7108529</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>1730744535.602772</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730744531.7108529.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730744535.602772.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I7" t="n">
+      <c r="L7" t="n">
         <v>225.41</v>
       </c>
-      <c r="J7" t="n">
+      <c r="M7" t="n">
         <v>224.68</v>
       </c>
-      <c r="K7" t="n">
+      <c r="N7" t="n">
         <v>-0.7299999999999898</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-0.32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1730744538.0824027</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>1730744541.7952356</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730744538.0824027.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730744541.7952356.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I8" t="n">
+      <c r="L8" t="n">
         <v>1004</v>
       </c>
-      <c r="J8" t="n">
+      <c r="M8" t="n">
         <v>1006.4</v>
       </c>
-      <c r="K8" t="n">
+      <c r="N8" t="n">
         <v>2.399999999999977</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7</v>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1730744544.4671628</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>1730744546.9379725</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/CNY1730744544.4671628.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>./test_images/CNY1730744546.9379725.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I9" t="n">
+      <c r="L9" t="n">
         <v>11.856</v>
       </c>
-      <c r="J9" t="n">
+      <c r="M9" t="n">
         <v>11.9</v>
       </c>
-      <c r="K9" t="n">
+      <c r="N9" t="n">
         <v>0.04400000000000048</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.37</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1730744549.755917</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/CNY1730744549.755917.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I10" t="n">
+      <c r="L10" t="n">
         <v>11.886</v>
       </c>
-      <c r="J10" t="n">
-        <v>11.886</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
+      <c r="M10" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.01400000000000112</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="n">
+        <v>9</v>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1730744550.6917348</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>1730744555.739535</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730744550.6917348.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730744555.739535.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I11" t="n">
+      <c r="L11" t="n">
         <v>124.74</v>
       </c>
-      <c r="J11" t="n">
+      <c r="M11" t="n">
         <v>123.58</v>
       </c>
-      <c r="K11" t="n">
+      <c r="N11" t="n">
         <v>-1.159999999999997</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-0.9299999999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="n">
+        <v>10</v>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1730744556.834081</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>1730744560.6984727</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730744556.834081.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730744560.6984727.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I12" t="n">
+      <c r="L12" t="n">
         <v>160.1</v>
       </c>
-      <c r="J12" t="n">
+      <c r="M12" t="n">
         <v>160.1</v>
       </c>
-      <c r="K12" t="n">
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1015,293 +1165,365 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="n">
+        <v>11</v>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1730744563.6053689</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>1730744567.2218146</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730744563.6053689.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730744567.2218146.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I13" t="n">
+      <c r="L13" t="n">
         <v>49.1</v>
       </c>
-      <c r="J13" t="n">
+      <c r="M13" t="n">
         <v>48.855</v>
       </c>
-      <c r="K13" t="n">
+      <c r="N13" t="n">
         <v>-0.2450000000000045</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="n">
+        <v>12</v>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1730744569.9090977</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>1730744571.5238335</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730744569.9090977.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730744571.5238335.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I14" t="n">
+      <c r="L14" t="n">
         <v>1363.2</v>
       </c>
-      <c r="J14" t="n">
+      <c r="M14" t="n">
         <v>1373.8</v>
       </c>
-      <c r="K14" t="n">
+      <c r="N14" t="n">
         <v>10.59999999999991</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.7799999999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="n">
+        <v>13</v>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1730744575.9053016</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>1730744578.4083652</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730744575.9053016.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730744578.4083652.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I15" t="n">
+      <c r="L15" t="n">
         <v>59.87</v>
       </c>
-      <c r="J15" t="n">
+      <c r="M15" t="n">
         <v>60.39</v>
       </c>
-      <c r="K15" t="n">
+      <c r="N15" t="n">
         <v>0.5200000000000031</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.8699999999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="n">
+        <v>14</v>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1730744582.3901393</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>1730744584.4361472</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/VTBR1730744582.3901393.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>./test_images/VTBR1730744584.4361472.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I16" t="n">
+      <c r="L16" t="n">
         <v>96.12</v>
       </c>
-      <c r="J16" t="n">
+      <c r="M16" t="n">
         <v>96.56999999999999</v>
       </c>
-      <c r="K16" t="n">
+      <c r="N16" t="n">
         <v>0.4499999999999886</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.47</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="n">
+        <v>15</v>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1730744589.187503</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>1730744592.676215</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/SELG1730744589.187503.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>./test_images/SELG1730744592.676215.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I17" t="n">
+      <c r="L17" t="n">
         <v>55.3</v>
       </c>
-      <c r="J17" t="n">
+      <c r="M17" t="n">
         <v>55.56</v>
       </c>
-      <c r="K17" t="n">
+      <c r="N17" t="n">
         <v>0.2600000000000051</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.47</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="n">
+        <v>16</v>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1730744595.2376392</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>1730744599.2309458</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730744595.2376392.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730744599.2309458.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I18" t="n">
+      <c r="L18" t="n">
         <v>143.42</v>
       </c>
-      <c r="J18" t="n">
+      <c r="M18" t="n">
         <v>143.42</v>
       </c>
-      <c r="K18" t="n">
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1309,245 +1531,305 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="n">
+        <v>17</v>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1730744601.7024581</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>1730744605.5671556</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730744601.7024581.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730744605.5671556.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I19" t="n">
+      <c r="L19" t="n">
         <v>19.73</v>
       </c>
-      <c r="J19" t="n">
+      <c r="M19" t="n">
         <v>19.844</v>
       </c>
-      <c r="K19" t="n">
+      <c r="N19" t="n">
         <v>0.1140000000000008</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.58</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="n">
+        <v>18</v>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1730744608.1073246</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>1730744612.0717466</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730744608.1073246.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730744612.0717466.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I20" t="n">
+      <c r="L20" t="n">
         <v>668.6</v>
       </c>
-      <c r="J20" t="n">
+      <c r="M20" t="n">
         <v>670</v>
       </c>
-      <c r="K20" t="n">
+      <c r="N20" t="n">
         <v>1.399999999999977</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="n">
+        <v>19</v>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1730744614.5680163</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>1730744618.4648504</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/MTLR1730744614.5680163.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>./test_images/MTLR1730744618.4648504.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I21" t="n">
+      <c r="L21" t="n">
         <v>147.99</v>
       </c>
-      <c r="J21" t="n">
+      <c r="M21" t="n">
         <v>148.68</v>
       </c>
-      <c r="K21" t="n">
+      <c r="N21" t="n">
         <v>0.6899999999999977</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.47</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="n">
+        <v>20</v>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1730744621.01301</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>1730744623.0393455</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/FEES1730744621.01301.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>./test_images/FEES1730744623.0393455.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I22" t="n">
+      <c r="L22" t="n">
         <v>0.09516000000000001</v>
       </c>
-      <c r="J22" t="n">
+      <c r="M22" t="n">
         <v>0.09586000000000001</v>
       </c>
-      <c r="K22" t="n">
+      <c r="N22" t="n">
         <v>0.0007000000000000062</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.74</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="n">
+        <v>21</v>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1730744627.3913002</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>1730744631.400145</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/MXI1730744627.3913002.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>./test_images/MXI1730744631.400145.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I23" t="n">
+      <c r="L23" t="n">
         <v>2899.5</v>
       </c>
-      <c r="J23" t="n">
+      <c r="M23" t="n">
         <v>2901.8</v>
       </c>
-      <c r="K23" t="n">
+      <c r="N23" t="n">
         <v>2.300000000000182</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.08</v>
       </c>
     </row>
   </sheetData>
@@ -1561,7 +1843,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1585,6 +1867,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1593,11 +1890,20 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.04400000000000048</v>
+        <v>0.05800000000000161</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.0290000000000008</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1611,6 +1917,15 @@
       <c r="C3" t="n">
         <v>1</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.1140000000000008</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1624,6 +1939,15 @@
       <c r="C4" t="n">
         <v>1</v>
       </c>
+      <c r="D4" t="n">
+        <v>2.300000000000182</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1637,6 +1961,15 @@
       <c r="C5" t="n">
         <v>1</v>
       </c>
+      <c r="D5" t="n">
+        <v>0.4499999999999886</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1650,6 +1983,15 @@
       <c r="C6" t="n">
         <v>1</v>
       </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1663,6 +2005,15 @@
       <c r="C7" t="n">
         <v>1</v>
       </c>
+      <c r="D7" t="n">
+        <v>1.399999999999977</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1676,6 +2027,15 @@
       <c r="C8" t="n">
         <v>1</v>
       </c>
+      <c r="D8" t="n">
+        <v>0.2600000000000051</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1689,6 +2049,15 @@
       <c r="C9" t="n">
         <v>1</v>
       </c>
+      <c r="D9" t="n">
+        <v>0.5600000000000023</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1702,6 +2071,15 @@
       <c r="C10" t="n">
         <v>1</v>
       </c>
+      <c r="D10" t="n">
+        <v>5.949999999999989</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1715,6 +2093,15 @@
       <c r="C11" t="n">
         <v>1</v>
       </c>
+      <c r="D11" t="n">
+        <v>2.399999999999977</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1728,6 +2115,15 @@
       <c r="C12" t="n">
         <v>1</v>
       </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1741,6 +2137,15 @@
       <c r="C13" t="n">
         <v>1</v>
       </c>
+      <c r="D13" t="n">
+        <v>0.6899999999999977</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1754,6 +2159,15 @@
       <c r="C14" t="n">
         <v>1</v>
       </c>
+      <c r="D14" t="n">
+        <v>0.5200000000000031</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8699999999999999</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.87</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1767,6 +2181,15 @@
       <c r="C15" t="n">
         <v>1</v>
       </c>
+      <c r="D15" t="n">
+        <v>-0.7299999999999898</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.32</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1780,6 +2203,15 @@
       <c r="C16" t="n">
         <v>1</v>
       </c>
+      <c r="D16" t="n">
+        <v>-0.2450000000000045</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.5</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1793,6 +2225,15 @@
       <c r="C17" t="n">
         <v>1</v>
       </c>
+      <c r="D17" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1806,6 +2247,15 @@
       <c r="C18" t="n">
         <v>1</v>
       </c>
+      <c r="D18" t="n">
+        <v>-1.159999999999997</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.9299999999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.93</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1819,6 +2269,15 @@
       <c r="C19" t="n">
         <v>1</v>
       </c>
+      <c r="D19" t="n">
+        <v>-0.7299999999999898</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.5700000000000001</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.57</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1832,6 +2291,15 @@
       <c r="C20" t="n">
         <v>1</v>
       </c>
+      <c r="D20" t="n">
+        <v>0.0007000000000000062</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1845,6 +2313,15 @@
       <c r="C21" t="n">
         <v>1</v>
       </c>
+      <c r="D21" t="n">
+        <v>10.59999999999991</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.7799999999999999</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1858,6 +2335,11 @@
       <c r="C22" t="n">
         <v>0</v>
       </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
